--- a/config_6.29/game_activity_config.xlsx
+++ b/config_6.29/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="177">
   <si>
     <t>line|行号</t>
   </si>
@@ -645,16 +645,22 @@
   <si>
     <t>"act_ty_task","act_yxrw_cjj","panel"</t>
   </si>
+  <si>
+    <t>西瓜兑换</t>
+  </si>
+  <si>
+    <t>西瓜排行榜</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -709,11 +715,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -721,15 +722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +736,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,6 +772,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -789,18 +803,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,8 +840,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,15 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,25 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,13 +925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,19 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,37 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,43 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,6 +1022,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,6 +1125,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1130,15 +1145,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,9 +1175,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,11 +1201,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,19 +1227,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,116 +1248,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1801,14 +1807,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4160,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="6">
@@ -4205,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="20" t="s">
         <v>66</v>
@@ -4252,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="32" t="s">
         <v>159</v>
@@ -4346,7 +4352,7 @@
         <v>4</v>
       </c>
       <c r="G56" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>66</v>
@@ -4393,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="30" t="s">
         <v>69</v>
@@ -4763,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="30" t="s">
         <v>69</v>
@@ -4810,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="20" t="s">
         <v>66</v>
@@ -4857,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="20" t="s">
         <v>66</v>
@@ -4904,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="20" t="s">
         <v>66</v>
@@ -4951,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="30" t="s">
         <v>69</v>
@@ -4977,6 +4983,103 @@
       <c r="O69" s="5" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:15">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="8">
+        <v>69</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1624924800</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1625500799</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="M70" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:15">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="8">
+        <v>70</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1624924800</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1625500799</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="8:8">
+      <c r="H72" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O69">

--- a/config_6.29/game_activity_config.xlsx
+++ b/config_6.29/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="180">
   <si>
     <t>line|行号</t>
   </si>
@@ -651,6 +651,15 @@
   <si>
     <t>西瓜排行榜</t>
   </si>
+  <si>
+    <t>登陆有礼</t>
+  </si>
+  <si>
+    <t>"act_ty_task","act_dlyl_cjj","panel"</t>
+  </si>
+  <si>
+    <t>消除酷暑</t>
+  </si>
 </sst>
 </file>
 
@@ -658,8 +667,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -715,7 +724,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,90 +790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,34 +814,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -901,7 +910,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +976,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,97 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,61 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1119,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1125,11 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,15 +1180,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,26 +1201,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,8 +1211,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,137 +1236,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1807,14 +1816,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5078,11 +5087,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="8:8">
-      <c r="H72" s="20"/>
+    <row r="72" ht="15.75" spans="1:15">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="8">
+        <v>71</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1624924800</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1627315199</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M72" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:15">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="8">
+        <v>72</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1624924800</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1627315199</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O69">
+  <autoFilter ref="A1:O71">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_6.29/game_activity_config.xlsx
+++ b/config_6.29/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -646,7 +646,7 @@
     <t>"act_ty_task","act_yxrw_cjj","panel"</t>
   </si>
   <si>
-    <t>西瓜兑换</t>
+    <t>西瓜兑奖</t>
   </si>
   <si>
     <t>西瓜排行榜</t>
@@ -666,8 +666,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -730,38 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +748,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,34 +775,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,6 +799,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -836,10 +814,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,7 +831,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -868,16 +847,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -910,7 +910,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +1012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,43 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,91 +1078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,26 +1115,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,6 +1150,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1180,21 +1186,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,6 +1207,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1224,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,133 +1236,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1823,7 +1823,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5182,7 +5182,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O71">
+  <autoFilter ref="A1:O73">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
